--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\RASPBERRYPI\share2\PycharmProjects\SHED_AUX\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDF8888-B5D0-41B0-AF69-11D5CAB08CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FFF692-276F-4B28-9C30-12EA0C253429}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="7830" windowWidth="18255" windowHeight="11595" xr2:uid="{82A4BAAA-6ED8-4E76-AA6A-33CFEDDEFD2A}"/>
+    <workbookView xWindow="7770" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{82A4BAAA-6ED8-4E76-AA6A-33CFEDDEFD2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
   <si>
     <t>SHED Auxiliary systems config file</t>
   </si>
@@ -272,13 +272,58 @@
   </si>
   <si>
     <t>192.168.128.100</t>
+  </si>
+  <si>
+    <t>gas analyzer BOUNDS</t>
+  </si>
+  <si>
+    <t>(0-10 V)</t>
+  </si>
+  <si>
+    <t>Alarm Active</t>
+  </si>
+  <si>
+    <t>0 for off, 1 for active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set alarm activation boundary. </t>
+  </si>
+  <si>
+    <t>Alarm will activate when OUTSIDE of bound</t>
+  </si>
+  <si>
+    <t>169.254.128.2</t>
+  </si>
+  <si>
+    <t>temp(C)=(input/4096)* 3300/10.24</t>
+  </si>
+  <si>
+    <t>Exhaust</t>
+  </si>
+  <si>
+    <t>Demo Mode:</t>
+  </si>
+  <si>
+    <t>(0:Maq20, 1:random )</t>
+  </si>
+  <si>
+    <t>PID ON/OFF</t>
+  </si>
+  <si>
+    <t>Deadhead ON/Off:</t>
+  </si>
+  <si>
+    <t>1 for on, 0 for off</t>
+  </si>
+  <si>
+    <t>Alarm ON/OFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +336,20 @@
       <color rgb="FF6897BB"/>
       <name val="JetBrains Mono"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +374,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -461,13 +542,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -491,6 +601,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,52 +929,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7068524D-5CCD-4349-A0BD-476FA9D60713}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="22">
         <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="B3" s="22">
+        <v>50</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
       </c>
       <c r="I3" t="s">
         <v>78</v>
@@ -869,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>600</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -902,32 +1037,32 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="26">
         <f>2*75.7</f>
         <v>151.4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="26">
         <f>2*75.7</f>
         <v>151.4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="27">
         <v>75.7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="26">
         <v>75.7</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="26">
         <v>75.7</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="26">
         <f>2*75.7</f>
         <v>151.4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="26">
         <f>2*75.7</f>
         <v>151.4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="26">
         <f>2*75.7</f>
         <v>151.4</v>
       </c>
@@ -942,6 +1077,7 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -953,6 +1089,15 @@
       <c r="C9">
         <v>5</v>
       </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
@@ -964,6 +1109,12 @@
       <c r="C10">
         <v>0.01</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -976,35 +1127,40 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2">
-        <f>330000 / (1024*4.096)</f>
-        <v>78.678131103515625</v>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="21">
+        <f>(1/4096)* 3300/10.24</f>
+        <v>7.8678131103515625E-2</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" ref="B14:B16" si="0">330000 / (1024*4.096)</f>
-        <v>78.678131103515625</v>
+      <c r="B14" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
+      <c r="B15" s="1">
+        <f t="shared" ref="B15:B16" si="0">330000 / (1024*4.096)</f>
         <v>78.678131103515625</v>
       </c>
     </row>
@@ -1012,7 +1168,7 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>78.678131103515625</v>
       </c>
@@ -1102,236 +1258,341 @@
         <v>53</v>
       </c>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>50</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="9">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>50</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>50</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>50</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>0.01</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <v>0.01</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>0.01</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <v>0.01</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>0.01</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <v>0.01</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>0.01</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>0.01</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="19">
         <v>-5</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="19">
         <v>-5</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="18">
         <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="20">
+        <v>0</v>
+      </c>
+      <c r="C51" s="20">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="20">
+        <v>0</v>
+      </c>
+      <c r="C52" s="20">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="20">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1344,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C548B4C-BA48-40B5-B431-A1AA20E76153}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1397,16 +1658,16 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H3">
@@ -1423,16 +1684,16 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H4">
@@ -1449,16 +1710,16 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5">
@@ -1467,13 +1728,13 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1481,13 +1742,13 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E6">
@@ -1499,13 +1760,13 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1513,13 +1774,13 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E7">
@@ -1531,13 +1792,13 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1563,13 +1824,13 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1586,22 +1847,22 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1609,31 +1870,31 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1641,22 +1902,22 @@
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H11">
@@ -1673,22 +1934,22 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H12">
@@ -1705,31 +1966,31 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1737,13 +1998,13 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E14">
@@ -1755,13 +2016,13 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1769,13 +2030,13 @@
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E15">
@@ -1787,13 +2048,13 @@
       <c r="G15">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1819,13 +2080,13 @@
       <c r="G16">
         <v>10</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1842,22 +2103,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1865,31 +2126,31 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1897,13 +2158,13 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E19">
@@ -1915,13 +2176,13 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="H19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1929,13 +2190,13 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20">
@@ -1947,13 +2208,13 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="H20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Q20" t="s">
@@ -1964,22 +2225,22 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H21">
@@ -1996,22 +2257,22 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H22">
@@ -2025,20 +2286,20 @@
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="C26">
@@ -2047,7 +2308,7 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26">
@@ -2056,7 +2317,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>1</v>
       </c>
       <c r="I26">
